--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2453.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2453.xlsx
@@ -354,7 +354,7 @@
         <v>2.342143645933963</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.821875686224858</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2453.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2453.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.071253961081048</v>
+        <v>1.788799643516541</v>
       </c>
       <c r="B1">
-        <v>2.342143645933963</v>
+        <v>1.982946276664734</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.372143268585205</v>
       </c>
       <c r="D1">
-        <v>2.821875686224858</v>
+        <v>3.682628154754639</v>
       </c>
       <c r="E1">
-        <v>0.9657525887136821</v>
+        <v>1.368188261985779</v>
       </c>
     </row>
   </sheetData>
